--- a/电费/电费.xlsx
+++ b/电费/电费.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\芒海小学\记帐\电费\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B3D0B36-9F9A-4944-805C-FB2BC0310FA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB6BD5D-C24A-4EFE-8D43-9342195FBE8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="幼儿园" sheetId="1" r:id="rId1"/>
+    <sheet name="小学" sheetId="2" r:id="rId2"/>
+    <sheet name="上交中心小学" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,11 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="7">
-  <si>
-    <t>列1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,29 +37,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>幼儿园</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>否</t>
   </si>
   <si>
     <t>是否上交</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>是否报销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上交月份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报账月份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.10-2022.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上交金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy\-m"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,13 +88,26 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -97,7 +122,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -108,23 +133,69 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="13">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="yyyy\-m"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="34" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="yyyy\-mm"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -147,16 +218,42 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B8C90FD4-DD5B-43CA-8CC1-B796CA76E13C}" name="表3" displayName="表3" ref="A1:D1048576" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A1:D1048576" xr:uid="{B8C90FD4-DD5B-43CA-8CC1-B796CA76E13C}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D13">
-    <sortCondition descending="1" ref="B1:B1048576"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B8C90FD4-DD5B-43CA-8CC1-B796CA76E13C}" name="表3" displayName="表3" ref="A1:C1048573" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A1:C1048573" xr:uid="{B8C90FD4-DD5B-43CA-8CC1-B796CA76E13C}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C10">
+    <sortCondition ref="A1:A1048573"/>
   </sortState>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{B0077F04-0D16-4305-B3EE-8B25DE6A3699}" name="列1" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{6D38DCA5-27FB-4F0F-B4D7-FC93D682EBCA}" name="时间" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{8515B9CC-E96E-476B-BC67-7B4F43200CC4}" name="金额" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{7EC32137-4751-4CF7-94AD-F405CE390C1B}" name="是否上交" dataDxfId="0"/>
+  <tableColumns count="3">
+    <tableColumn id="2" xr3:uid="{6D38DCA5-27FB-4F0F-B4D7-FC93D682EBCA}" name="时间" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{8515B9CC-E96E-476B-BC67-7B4F43200CC4}" name="金额" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{7EC32137-4751-4CF7-94AD-F405CE390C1B}" name="是否上交" dataDxfId="8"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BF9A8A09-778D-4BDB-8180-F0BC57E80105}" name="表2" displayName="表2" ref="A1:C1048576" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A1:C1048576" xr:uid="{BF9A8A09-778D-4BDB-8180-F0BC57E80105}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C1048576">
+    <sortCondition ref="A1:A1048576"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{79E9CE30-6115-43AE-8E67-24DC47EACFBA}" name="时间" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{2D23C168-A96F-4423-869B-767CC1E2E966}" name="金额" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{D46F9081-6431-4940-BA5A-3515252AC276}" name="是否报销" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9EE999AB-B9BD-4572-88D9-AEB86A4FFFCE}" name="表_4" displayName="表_4" ref="A1:C1048576" totalsRowShown="0">
+  <autoFilter ref="A1:C1048576" xr:uid="{9EE999AB-B9BD-4572-88D9-AEB86A4FFFCE}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{CD2796AB-8EA3-48D0-9899-845A2E44082B}" name="报账月份" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{3161B9C1-9FFC-472C-8536-5FB2E6D1823D}" name="上交月份" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{47703EDB-6761-45F7-97B8-1C981E8D4656}" name="上交金额" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -425,164 +522,100 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="1"/>
-    <col min="2" max="2" width="13.9140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" style="3"/>
-    <col min="4" max="4" width="8.6640625" style="1"/>
+    <col min="1" max="1" width="16.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>44932</v>
+      </c>
+      <c r="B2" s="3">
+        <v>64.11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>44932</v>
+      </c>
+      <c r="B3" s="3">
+        <v>159.65</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>44967</v>
+      </c>
+      <c r="B4" s="3">
+        <v>6.93</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>44967</v>
+      </c>
+      <c r="B5" s="3">
+        <v>20.11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
         <v>44992</v>
       </c>
-      <c r="C2" s="3">
+      <c r="B6" s="3">
         <v>139.22999999999999</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2">
+      <c r="C6" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
         <v>44992</v>
       </c>
-      <c r="C3" s="3">
+      <c r="B7" s="3">
         <v>218.32</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2">
-        <v>44990</v>
-      </c>
-      <c r="C4" s="3">
-        <v>943.49</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2">
-        <v>44967</v>
-      </c>
-      <c r="C5" s="3">
-        <v>6.93</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="2">
-        <v>44967</v>
-      </c>
-      <c r="C6" s="3">
-        <v>20.11</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="2">
-        <v>44963</v>
-      </c>
-      <c r="C7" s="3">
-        <v>243.4</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="2">
-        <v>44932</v>
-      </c>
-      <c r="C8" s="3">
-        <v>64.11</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="2">
-        <v>44932</v>
-      </c>
-      <c r="C9" s="3">
-        <v>159.65</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="2">
-        <v>44932</v>
-      </c>
-      <c r="C10" s="3">
-        <v>641.64</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>5</v>
+      <c r="C7" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D10" xr:uid="{CF1884BA-EA07-4288-BD12-7379F180D52C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C7" xr:uid="{CF1884BA-EA07-4288-BD12-7379F180D52C}">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
@@ -591,4 +624,150 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7979EFB8-FED2-456C-810D-95057139CD61}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>44896</v>
+      </c>
+      <c r="B2" s="5">
+        <v>641.64</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="11">
+        <f>SUM(B2:B6)</f>
+        <v>4530.04</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="9">
+        <v>44927</v>
+      </c>
+      <c r="B3" s="6">
+        <v>243.4</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>44958</v>
+      </c>
+      <c r="B4" s="5">
+        <v>943.49</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
+        <v>44986</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1262.76</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
+        <v>45017</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1438.75</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C6" xr:uid="{CF1884BA-EA07-4288-BD12-7379F180D52C}">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F4FF5CA-98F1-40C7-A625-0FBC6810B915}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.58203125" style="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="10">
+        <v>44896</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3">
+        <v>3193.17</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>